--- a/biology/Biochimie/D-Arginine_déshydrogénase/D-Arginine_déshydrogénase.xlsx
+++ b/biology/Biochimie/D-Arginine_déshydrogénase/D-Arginine_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D-Arginine_d%C3%A9shydrog%C3%A9nase</t>
+          <t>D-Arginine_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La D-arginine déshydrogénase, ou D-aminoacide déshydrogénase (anciennement EC 1.4.99.1) est une oxydoréductase qui catalyse la réaction :
 D-arginine + accepteur + H2O  
@@ -495,8 +507,8 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   5-guanidino-2-oxopentanoate + NH3 (spontané).
-Cette enzyme possède une très large spécificité par rapport à son substrat : elle agit sur à peu près tous les acides aminés D[1] hormis sur le D-glutamate et le D-aspartate ; elle est inactive sur la glycine, et son activité est maximum sur la D-arginine et la D-lysine. Elle utilise du FAD et du fer non héminique comme cofacteurs[2].
-Cette réaction est distincte de celle catalysée par la D-aminoacide oxydase, qui utilise l'oxygène comme second substrat, tandis que la déshydrogénase peut utiliser différents composés comme accepteurs d'électrons, le substrat physiologique étant une coenzyme Q[1],[3].
+Cette enzyme possède une très large spécificité par rapport à son substrat : elle agit sur à peu près tous les acides aminés D hormis sur le D-glutamate et le D-aspartate ; elle est inactive sur la glycine, et son activité est maximum sur la D-arginine et la D-lysine. Elle utilise du FAD et du fer non héminique comme cofacteurs.
+Cette réaction est distincte de celle catalysée par la D-aminoacide oxydase, qui utilise l'oxygène comme second substrat, tandis que la déshydrogénase peut utiliser différents composés comme accepteurs d'électrons, le substrat physiologique étant une coenzyme Q,.
 </t>
         </is>
       </c>
